--- a/public/format/formatsiswa.xlsx
+++ b/public/format/formatsiswa.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>no</t>
   </si>
@@ -47,6 +47,9 @@
   </si>
   <si>
     <t>kelas_id</t>
+  </si>
+  <si>
+    <t>password</t>
   </si>
   <si>
     <t>Amrrul</t>
@@ -1008,10 +1011,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1"/>
@@ -1022,7 +1025,7 @@
     <col min="10" max="10" width="9.57142857142857"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1056,8 +1059,11 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:12">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1068,28 +1074,31 @@
         <v>54645</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J2">
         <v>42423423</v>
       </c>
       <c r="K2">
         <v>4</v>
+      </c>
+      <c r="L2" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/public/format/formatsiswa.xlsx
+++ b/public/format/formatsiswa.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>no</t>
   </si>
@@ -50,6 +50,9 @@
   </si>
   <si>
     <t>password</t>
+  </si>
+  <si>
+    <t>nama wali</t>
   </si>
   <si>
     <t>Amrrul</t>
@@ -1011,10 +1014,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1"/>
@@ -1025,7 +1028,7 @@
     <col min="10" max="10" width="9.57142857142857"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1061,6 +1064,9 @@
       </c>
       <c r="L1" s="1" t="s">
         <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -1074,22 +1080,22 @@
         <v>54645</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J2">
         <v>42423423</v>
